--- a/Documents/Danh sách các chức năng.xlsx
+++ b/Documents/Danh sách các chức năng.xlsx
@@ -8,33 +8,100 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\2022\nguyenminhthong2020\thuctap-fpt\back-end\fpt-ecommerce\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEC5D07-F337-4830-93CE-B58DF49D85EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEEF2CF-8DB5-4D4E-9BCC-47D98D6FE788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Link Git:</t>
+  </si>
+  <si>
+    <t>Các chức năng/ công việc dự kiến (có thể bổ sung hoặc chỉnh sửa sau ạ)</t>
+  </si>
+  <si>
+    <t>Thời gian dự kiến hoàn thành</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/users/nguyenminhthong2020/projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Trong Repo Back-end có folder Documents chứa các diagram, flowchart, file excel,…cần ạ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Với lại sau này em có thể sẽ tạo thêm 1 solution cho Kafka ạ.</t>
+  </si>
+  <si>
+    <t>Các API cần gửi kèm token xác thực, chưa bao gồm các API đặt hàng
+ (VD: API Log out)</t>
+  </si>
+  <si>
+    <t>Cài đặt Kafka + nhóm các API liên quan đến đặt hàng</t>
+  </si>
+  <si>
+    <t>Chậm nhất hết tuần này (Chủ Nhật, 22/5)</t>
+  </si>
+  <si>
+    <t>Chậm nhất trong Thứ Ba (24/5)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phần giao diện cơ bản cho client (ReactJS) + Redux, fetch API (dữ liệu giả),…
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>** Em đang làm phần này ạ.</t>
+    </r>
+  </si>
+  <si>
+    <t>Chậm nhất tuần sau (trong Thứ Hai, 23/5)</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa, bổ sung (nếu có), chạy thử, kiểm tra,…</t>
+  </si>
+  <si>
+    <t>Các API không cần gửi kèm token xác thực
+ (VD: API hiển thị ra danh sách các sản phẩm trên trang web, phân trang, API Login,...)</t>
+  </si>
+  <si>
+    <t>Phần này ban đầu em nghĩ là phần giao diện chính 
+có thể làm nhanh trong tuần tuy nhiên cũng phải liên tục 
+phối hợp với Back-end để chỉnh sửa (nếu cần) nên em đặt thời gian dự kiến là hết tuần này (Chủ Nhật ạ)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,16 +116,79 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="13"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -66,16 +196,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -354,43 +521,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="4.88671875" style="1" customWidth="1"/>
+    <col min="12" max="16" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="18" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" spans="1:18" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" ht="42.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" ht="25.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+  <mergeCells count="26">
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="A3:Q3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4006145C-8D4D-49E5-85B6-07FCF614F159}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
